--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="1750" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>SUITE ID</t>
   </si>
   <si>
-    <t>https://dev.azure.com/CBACIT</t>
-  </si>
-  <si>
     <t>rzcbnkbfjlqpzvk4qzttnxnbietuqh2y524abk7raeunxrd6qeia</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>118</t>
+  </si>
+  <si>
+    <t>https://dev.azure.com/</t>
   </si>
 </sst>
 </file>
@@ -431,10 +431,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -744,7 +744,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -757,13 +757,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="15.5">
       <c r="A2" s="11" t="s">
@@ -1003,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1014,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1025,7 +1025,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1036,7 +1036,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1047,7 +1047,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1057,8 +1057,8 @@
       <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>70</v>
+      <c r="B28" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
